--- a/biology/Médecine/Karl_Süpfle/Karl_Süpfle.xlsx
+++ b/biology/Médecine/Karl_Süpfle/Karl_Süpfle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl_S%C3%BCpfle</t>
+          <t>Karl_Süpfle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Süpfle (9 décembre 1880 à Metz - 26 septembre 1942 à Stalingrad) est un chercheur et un professeur de médecine allemand, en activité dans la première moitié du XXe siècle[1]. Ses domaines de recherche prioritaires étaient la bactériologie et l’immunologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Süpfle (9 décembre 1880 à Metz - 26 septembre 1942 à Stalingrad) est un chercheur et un professeur de médecine allemand, en activité dans la première moitié du XXe siècle. Ses domaines de recherche prioritaires étaient la bactériologie et l’immunologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karl_S%C3%BCpfle</t>
+          <t>Karl_Süpfle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du philologue Theodor Süpfle (1833-1895), Karl Süpfle naît le 9 décembre 1880, à Metz[2], une ville de garnison animée d'Alsace-Lorraine[3]. Le jeune Karl fait ses études à l’université de Heidelberg, où il soutient son doctorat en 1904[2]. Il est nommé assistant de recherche, puis chargé de cours, à l’université de Fribourg-en-Brisgau en 1907. Süpfle enseigne à l’Institut d’hygiène de l'université de Munich en 1911, avant d'obtenir un poste de professeur associé à la faculté vétérinaire de Munich en 1914. 
-Pendant la Première Guerre mondiale, le professeur Süpfle sert, comme son compatriote Walther Kittel, en qualité de médecin militaire dans la Deutsches Heer, l'armée de l'empire allemand[4]. 
-Karl Süpfle est nommé professeur d'hygiène en 1922, puis directeur de l'Institut d'hygiène de l'université technologique de Dresde en 1927[2]. En 1937, il rejoint l'université de Hambourg, avec la même fonction. 
-Le 1er août 1939, alors qu’il est âgé de cinquante-neuf ans, le professeur Süpfle est enrôlé comme Oberkriegsarzt, médecin militaire dans la Wehrmacht. Envoyé sur le front russe, le commandant Karl Süpfle meurt le 26 septembre 1942[2], devant Stalingrad, emporté dans la tourmente des combats.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du philologue Theodor Süpfle (1833-1895), Karl Süpfle naît le 9 décembre 1880, à Metz, une ville de garnison animée d'Alsace-Lorraine. Le jeune Karl fait ses études à l’université de Heidelberg, où il soutient son doctorat en 1904. Il est nommé assistant de recherche, puis chargé de cours, à l’université de Fribourg-en-Brisgau en 1907. Süpfle enseigne à l’Institut d’hygiène de l'université de Munich en 1911, avant d'obtenir un poste de professeur associé à la faculté vétérinaire de Munich en 1914. 
+Pendant la Première Guerre mondiale, le professeur Süpfle sert, comme son compatriote Walther Kittel, en qualité de médecin militaire dans la Deutsches Heer, l'armée de l'empire allemand. 
+Karl Süpfle est nommé professeur d'hygiène en 1922, puis directeur de l'Institut d'hygiène de l'université technologique de Dresde en 1927. En 1937, il rejoint l'université de Hambourg, avec la même fonction. 
+Le 1er août 1939, alors qu’il est âgé de cinquante-neuf ans, le professeur Süpfle est enrôlé comme Oberkriegsarzt, médecin militaire dans la Wehrmacht. Envoyé sur le front russe, le commandant Karl Süpfle meurt le 26 septembre 1942, devant Stalingrad, emporté dans la tourmente des combats.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karl_S%C3%BCpfle</t>
+          <t>Karl_Süpfle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les domaines de recherche prioritaires de Karl Süpfle étaient la bactériologie et l’immunologie. Ses travaux s’inscrivent dans la lignée des recherches de Max Joseph von Pettenkofer ou de Max von Gruber.
 (de) Beiträge zur Kenntnis der Vaccinekörperchen, 1905.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Karl_S%C3%BCpfle</t>
+          <t>Karl_Süpfle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hans-Michael Körner (dir), Große Bayerische Biographische Enzyklopädie, 4 tomes, Walter de Gruyter, Berlin, 2005 (p.1931)
 Carlwalter Straßhausen (sous la direction de), Internationale Hygiene-Ausstellung, Verlag der Internationalen Hygiene-Ausstellung, Dresdes, 1930 (p. 127-128).
